--- a/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>510810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>汇添富中证上海国企ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>101.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8875</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160628</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证800地产指数（LOF）</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>160218</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>国泰国证房地产行业指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.69</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.50</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>160628</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>鹏华中证800地产指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>510810</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证上海国企ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>97.87</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>90.69</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>0.95</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007615</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精锐股票C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>007615</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>德邦民裕进取量化精锐股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.98</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -828,15 +948,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.59</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>19.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>招商沪深300地产等权重指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.66</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.97</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -940,15 +1100,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -968,15 +1138,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.22</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>83.97</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007794</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强C</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1562,4 +1563,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.48</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.07</v>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.57</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2087,13 +2174,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4935</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2331,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2342,17 +2343,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2362,14 +2383,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5935</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.99</v>
       </c>
     </row>
     <row r="3">
@@ -2378,14 +2421,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.48</v>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2394,14 +2459,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.07</v>
       </c>
     </row>
     <row r="5">
@@ -2410,14 +2497,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.57</v>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2426,13 +2535,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>34.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3224,7 +3225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,17 +3236,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3255,14 +3276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.73</v>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5792</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3271,14 +3314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.99</v>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3287,14 +3352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.48</v>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3303,14 +3390,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.07</v>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3319,14 +3428,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.57</v>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3335,13 +3466,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>4.38</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>6.73</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>4.99</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>4.48</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.07</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.57</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.03</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>013273</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>招商沪深300地产等权重指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73.11</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.97</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5792</t>
+          <t>0.7417</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013273</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数C</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>40.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>99.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5474</t>
+          <t>0.7404</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -737,27 +754,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>招商沪深300地产等权重指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7367</t>
+          <t>0.5372</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1328</t>
+          <t>0.0748</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -813,31 +830,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证800地产指数（LOF）</t>
+          <t>鹏华中证800地产指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1327</t>
+          <t>0.0745</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>159768</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>银华中证内地地产主题ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.17</t>
+          <t>97.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1233</t>
+          <t>0.0509</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>015042</t>
+          <t>159707</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数C</t>
+          <t>华宝中证800地产ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>98.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0648</t>
+          <t>0.0335</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>015674</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>鹏华中证800地产指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.60</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0641</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +977,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5792</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1851,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2173,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2609,7 +2986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2893,7 +3270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3291,7 +3668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600606-绿地控股.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.28</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.38</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>6.73</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>4.99</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>4.48</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>5.07</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>5.57</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,470 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.03</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8875</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007614</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007615</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +1075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +1136,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7417</t>
+          <t>0.9704</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,26 +1174,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.02</t>
+          <t>34.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.99</t>
+          <t>99.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7404</t>
+          <t>0.6693</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -759,22 +1212,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5372</t>
+          <t>0.5955</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,36 +1240,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>160218</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>国泰国证房地产行业指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.07</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.1000</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1278,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160628</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证800地产指数（LOF）A</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>99.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0745</t>
+          <t>0.0975</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1316,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159768</t>
+          <t>159707</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华中证内地地产主题ETF</t>
+          <t>华宝中证800地产ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.47</t>
+          <t>98.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0509</t>
+          <t>0.0921</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1354,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159707</t>
+          <t>160628</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝中证800地产ETF</t>
+          <t>鹏华中证800地产指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.55</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0335</t>
+          <t>0.0778</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1392,112 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>015674</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>鹏华中证800地产指数（LOF）C</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1033,36 +1562,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>013273</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>招商沪深300地产等权重指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73.11</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.97</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5792</t>
+          <t>0.7417</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1071,36 +1600,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013273</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数C</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>40.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>99.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5474</t>
+          <t>0.7404</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1114,27 +1643,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>招商沪深300地产等权重指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7367</t>
+          <t>0.5372</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1147,36 +1676,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1328</t>
+          <t>0.0748</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1190,31 +1719,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证800地产指数（LOF）</t>
+          <t>鹏华中证800地产指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1327</t>
+          <t>0.0745</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1223,36 +1752,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>159768</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>银华中证内地地产主题ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.17</t>
+          <t>97.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1233</t>
+          <t>0.0509</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1261,36 +1790,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>015042</t>
+          <t>159707</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数C</t>
+          <t>华宝中证800地产ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>98.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0648</t>
+          <t>0.0335</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1299,36 +1828,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>015674</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>鹏华中证800地产指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.60</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0641</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1337,6 +1866,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5792</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2228,7 +3117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2550,7 +3439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2986,7 +3875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3270,7 +4159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3666,440 +4555,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证上海国企ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.8875</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512200</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5279</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160218</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰国证房地产行业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2377</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1906</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160628</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证800地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1394</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515060</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007614</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007615</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>